--- a/FLOPS Compilation.xlsx
+++ b/FLOPS Compilation.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raghavkumar/work/CUDA Kernels/matmulrepo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B99C08-31CD-144E-8DB1-98E7CA1FCA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E46220B-A41B-7141-8107-E37690008BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{6E745BC1-A0BB-C741-BA60-31403C2954EB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14220" xr2:uid="{6E745BC1-A0BB-C741-BA60-31403C2954EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>CUBLAS</t>
   </si>
@@ -81,15 +82,27 @@
   <si>
     <t>ampere_sgemm_64x32_sliced1x4_nn </t>
   </si>
+  <si>
+    <t>Time (in ms)</t>
+  </si>
+  <si>
+    <t>GFLOP/s</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -115,9 +128,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -190,7 +211,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>Sheet1!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -225,7 +246,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -252,7 +273,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$G$2</c:f>
+              <c:f>Sheet1!$B$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -289,7 +310,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
+              <c:f>Sheet1!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -324,7 +345,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -351,7 +372,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$G$3</c:f>
+              <c:f>Sheet1!$B$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -388,7 +409,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
+              <c:f>Sheet1!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -423,7 +444,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -450,7 +471,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$G$4</c:f>
+              <c:f>Sheet1!$B$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -487,7 +508,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
+              <c:f>Sheet1!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -522,7 +543,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -549,7 +570,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$G$5</c:f>
+              <c:f>Sheet1!$B$6:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -586,7 +607,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$6</c:f>
+              <c:f>Sheet1!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -621,7 +642,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -648,7 +669,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$G$6</c:f>
+              <c:f>Sheet1!$B$7:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -685,7 +706,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$7</c:f>
+              <c:f>Sheet1!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -720,7 +741,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -747,7 +768,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$G$7</c:f>
+              <c:f>Sheet1!$B$8:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -784,7 +805,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$8</c:f>
+              <c:f>Sheet1!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -825,7 +846,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -852,7 +873,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$G$8</c:f>
+              <c:f>Sheet1!$B$9:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -889,7 +910,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$9</c:f>
+              <c:f>Sheet1!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -930,7 +951,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -957,7 +978,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$G$9</c:f>
+              <c:f>Sheet1!$B$10:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1192,7 +1213,1105 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUBLAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.6299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.206E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17318</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.784090000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71.490769999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-260C-CA47-81FA-9BBEF2BD389C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Naive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.6179999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.371420000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.384410000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>777.20507999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-260C-CA47-81FA-9BBEF2BD389C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Row Coalesce</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.8839999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6070000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2621500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.131239999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>154.99827999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1391.3081099999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-260C-CA47-81FA-9BBEF2BD389C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shared Memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.807E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16036</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.20289</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5764899999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.003389999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>581.45703000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-260C-CA47-81FA-9BBEF2BD389C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1D Tiled</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.175E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0560000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44391999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0904099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.097069999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>206.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-260C-CA47-81FA-9BBEF2BD389C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2D Tiled</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.5799999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1135</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38514999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7730600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.35833</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110.38986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-260C-CA47-81FA-9BBEF2BD389C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vectorized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.11E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2840000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31325999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4865600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.47433</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.494529999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-260C-CA47-81FA-9BBEF2BD389C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Warp Tiled</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$22:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.3639999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1140000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26680999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6053599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.7775</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.499200000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-260C-CA47-81FA-9BBEF2BD389C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="220712720"/>
+        <c:axId val="220714448"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="220712720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="220714448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="220714448"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="220712720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1735,20 +2854,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1768,6 +3390,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{128ACD81-D818-0AE1-87B0-DB851190B898}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2073,301 +3731,550 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD046610-EB19-5E48-A8B5-B3C465579B13}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="1" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1">
-        <v>256</v>
-      </c>
-      <c r="C1">
-        <v>512</v>
-      </c>
-      <c r="D1">
-        <v>1024</v>
-      </c>
-      <c r="E1">
-        <v>2048</v>
-      </c>
-      <c r="F1">
-        <v>4096</v>
-      </c>
-      <c r="G1">
-        <v>8192</v>
-      </c>
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2058.21</v>
+      <c r="B2" s="4">
+        <v>256</v>
       </c>
       <c r="C2">
-        <v>6381.69</v>
+        <v>512</v>
       </c>
       <c r="D2">
-        <v>12400.37</v>
+        <v>1024</v>
       </c>
       <c r="E2">
-        <v>12928.82</v>
+        <v>2048</v>
       </c>
       <c r="F2">
-        <v>12744.6</v>
+        <v>4096</v>
       </c>
       <c r="G2">
-        <v>15379.77</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>726.56</v>
+        <v>2058.21</v>
       </c>
       <c r="C3">
-        <v>1295.56</v>
+        <v>6381.69</v>
       </c>
       <c r="D3">
-        <v>1398.1</v>
+        <v>12400.37</v>
       </c>
       <c r="E3">
-        <v>1388.67</v>
+        <v>12928.82</v>
       </c>
       <c r="F3">
-        <v>1440.89</v>
+        <v>12744.6</v>
       </c>
       <c r="G3">
-        <v>1414.69</v>
+        <v>15379.77</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>1780.86</v>
+        <v>726.56</v>
       </c>
       <c r="C4">
-        <v>2794.11</v>
+        <v>1295.56</v>
       </c>
       <c r="D4">
-        <v>1701.45</v>
+        <v>1398.1</v>
       </c>
       <c r="E4">
-        <v>1065</v>
+        <v>1388.67</v>
       </c>
       <c r="F4">
-        <v>886.71</v>
+        <v>1440.89</v>
       </c>
       <c r="G4">
-        <v>790.27</v>
+        <v>1414.69</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>881.33</v>
+        <v>1780.86</v>
       </c>
       <c r="C5">
-        <v>1673.97</v>
+        <v>2794.11</v>
       </c>
       <c r="D5">
-        <v>1785.26</v>
+        <v>1701.45</v>
       </c>
       <c r="E5">
-        <v>1793.96</v>
+        <v>1065</v>
       </c>
       <c r="F5">
-        <v>1963.31</v>
+        <v>886.71</v>
       </c>
       <c r="G5">
-        <v>1890.95</v>
+        <v>790.27</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>1056.8800000000001</v>
+        <v>881.33</v>
       </c>
       <c r="C6">
-        <v>2964.17</v>
+        <v>1673.97</v>
       </c>
       <c r="D6">
-        <v>4837.49</v>
+        <v>1785.26</v>
       </c>
       <c r="E6">
-        <v>5559.08</v>
+        <v>1793.96</v>
       </c>
       <c r="F6">
-        <v>5476.29</v>
+        <v>1963.31</v>
       </c>
       <c r="G6">
-        <v>5320.9</v>
+        <v>1890.95</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>509.93</v>
+        <v>1056.8800000000001</v>
       </c>
       <c r="C7">
-        <v>2365.06</v>
+        <v>2964.17</v>
       </c>
       <c r="D7">
-        <v>5575.75</v>
+        <v>4837.49</v>
       </c>
       <c r="E7">
-        <v>9689.41</v>
+        <v>5559.08</v>
       </c>
       <c r="F7">
-        <v>10288.629999999999</v>
+        <v>5476.29</v>
       </c>
       <c r="G7">
-        <v>9960.25</v>
+        <v>5320.9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>656.69</v>
+        <v>509.93</v>
       </c>
       <c r="C8">
-        <v>2891.5</v>
+        <v>2365.06</v>
       </c>
       <c r="D8">
-        <v>6855.18</v>
+        <v>5575.75</v>
       </c>
       <c r="E8">
-        <v>11556.78</v>
+        <v>9689.41</v>
       </c>
       <c r="F8">
-        <v>11977.95</v>
+        <v>10288.629999999999</v>
       </c>
       <c r="G8">
-        <v>11513.87</v>
+        <v>9960.25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>656.69</v>
+      </c>
+      <c r="C9">
+        <v>2891.5</v>
+      </c>
+      <c r="D9">
+        <v>6855.18</v>
+      </c>
+      <c r="E9">
+        <v>11556.78</v>
+      </c>
+      <c r="F9">
+        <v>11977.95</v>
+      </c>
+      <c r="G9">
+        <v>11513.87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>768.84</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>3308.22</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>8048.63</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>10701.55</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>12752.39</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>12423.97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>256</v>
-      </c>
-      <c r="B12">
-        <v>33554432</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>512</v>
-      </c>
-      <c r="B13">
-        <v>268435456</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B14" s="4">
+        <v>256</v>
+      </c>
+      <c r="C14">
+        <v>512</v>
+      </c>
+      <c r="D14">
         <v>1024</v>
       </c>
-      <c r="B14">
-        <v>2147483648</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
+      <c r="E14">
+        <v>2048</v>
+      </c>
+      <c r="F14">
+        <v>4096</v>
+      </c>
+      <c r="G14">
+        <v>8192</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2048</v>
-      </c>
-      <c r="B15">
-        <v>17179869184</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="C15" s="5">
+        <v>4.206E-2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.17318</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1.3288</v>
+      </c>
+      <c r="F15">
+        <v>10.784090000000001</v>
+      </c>
+      <c r="G15">
+        <v>71.490769999999998</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3">
+        <v>4.6179999999999999E-2</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.2072</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1.536</v>
+      </c>
+      <c r="E16" s="3">
+        <v>12.371420000000001</v>
+      </c>
+      <c r="F16">
+        <v>95.384410000000003</v>
+      </c>
+      <c r="G16">
+        <v>777.20507999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.8839999999999999E-2</v>
+      </c>
+      <c r="C17" s="5">
+        <v>9.6070000000000003E-2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1.2621500000000001</v>
+      </c>
+      <c r="E17" s="3">
+        <v>16.131239999999998</v>
+      </c>
+      <c r="F17">
+        <v>154.99827999999999</v>
+      </c>
+      <c r="G17">
+        <v>1391.3081099999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3.807E-2</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.16036</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1.20289</v>
+      </c>
+      <c r="E18" s="3">
+        <v>9.5764899999999997</v>
+      </c>
+      <c r="F18">
+        <v>70.003389999999996</v>
+      </c>
+      <c r="G18">
+        <v>581.45703000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3">
+        <v>3.175E-2</v>
+      </c>
+      <c r="C19" s="5">
+        <v>9.0560000000000002E-2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.44391999999999998</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3.0904099999999999</v>
+      </c>
+      <c r="F19">
+        <v>25.097069999999999</v>
+      </c>
+      <c r="G19">
+        <v>206.64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3">
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.1135</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.38514999999999999</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1.7730600000000001</v>
+      </c>
+      <c r="F20">
+        <v>13.35833</v>
+      </c>
+      <c r="G20">
+        <v>110.38986</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="3">
+        <v>5.11E-2</v>
+      </c>
+      <c r="C21" s="5">
+        <v>9.2840000000000006E-2</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.31325999999999998</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1.4865600000000001</v>
+      </c>
+      <c r="F21">
+        <v>11.47433</v>
+      </c>
+      <c r="G21">
+        <v>95.494529999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="3">
+        <v>4.3639999999999998E-2</v>
+      </c>
+      <c r="C22" s="5">
+        <v>8.1140000000000004E-2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.26680999999999999</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1.6053599999999999</v>
+      </c>
+      <c r="F22">
+        <v>10.7775</v>
+      </c>
+      <c r="G22">
+        <v>88.499200000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A804F5-7456-B24F-A58E-86B934FF4D15}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>256</v>
+      </c>
+      <c r="B2">
+        <v>33554432</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>512</v>
+      </c>
+      <c r="B3">
+        <v>268435456</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1024</v>
+      </c>
+      <c r="B4">
+        <v>2147483648</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2048</v>
+      </c>
+      <c r="B5">
+        <v>17179869184</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>4096</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B6" s="1">
         <v>137438953472</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>8192</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B7" s="1">
         <v>1099511627776</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>